--- a/templates/Form kết hợp.xlsx
+++ b/templates/Form kết hợp.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AAAB84-7E61-4E3D-9A7E-CBC908F7ACB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Điểm danh" sheetId="1" r:id="rId1"/>
     <sheet name="Nghỉ phép" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Mã NV</t>
   </si>
@@ -32,34 +39,40 @@
     <t xml:space="preserve">Ngày </t>
   </si>
   <si>
-    <t>Check 1</t>
-  </si>
-  <si>
-    <t>Check 2</t>
-  </si>
-  <si>
-    <t>Check 3</t>
-  </si>
-  <si>
-    <t>Check 4</t>
-  </si>
-  <si>
-    <t>Check 5</t>
-  </si>
-  <si>
-    <t>Check 6</t>
-  </si>
-  <si>
-    <t>Check 7</t>
-  </si>
-  <si>
-    <t>Check 8</t>
-  </si>
-  <si>
-    <t>Check 9</t>
-  </si>
-  <si>
-    <t>Check 10</t>
+    <t>Check In 1</t>
+  </si>
+  <si>
+    <t>Check In 2</t>
+  </si>
+  <si>
+    <t>Check In 3</t>
+  </si>
+  <si>
+    <t>Check In 4</t>
+  </si>
+  <si>
+    <t>Check In 5</t>
+  </si>
+  <si>
+    <t>Check In 6</t>
+  </si>
+  <si>
+    <t>Check In 7</t>
+  </si>
+  <si>
+    <t>Check In 8</t>
+  </si>
+  <si>
+    <t>Check In 9</t>
+  </si>
+  <si>
+    <t>Check Out</t>
+  </si>
+  <si>
+    <t>Tổng số giờ làm trong ngày</t>
+  </si>
+  <si>
+    <t>Tổng số giờ làm trong tháng</t>
   </si>
   <si>
     <t>Ngày Nghỉ</t>
@@ -74,22 +87,197 @@
     <t>Lý do</t>
   </si>
   <si>
-    <t>Trạng thái</t>
+    <t>Ngày Duyệt/Từ chối lần 1</t>
+  </si>
+  <si>
+    <t>Trạng thái lần 1</t>
+  </si>
+  <si>
+    <t>Ngày Duyệt/Từ chối lần 2</t>
+  </si>
+  <si>
+    <t>Trạng thái lần 2</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +290,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -113,16 +487,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -141,45 +515,347 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -228,7 +904,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -263,7 +939,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -437,264 +1113,290 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="82.5546875" customWidth="1"/>
-    <col min="5" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="16" width="2" customWidth="1"/>
+    <col min="4" max="13" width="17.2444444444444" customWidth="1"/>
+    <col min="14" max="14" width="25.5555555555556" customWidth="1"/>
+    <col min="15" max="15" width="26.2222222222222" customWidth="1"/>
+    <col min="16" max="16" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="20.25" customHeight="1" spans="1:15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="20.1" customHeight="1" spans="1:15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="22.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="10.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="27.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="30.88671875" customWidth="1"/>
-    <col min="8" max="12" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="18.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="15.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="14.2222222222222" customWidth="1"/>
+    <col min="12" max="12" width="7.22222222222222" customWidth="1"/>
+    <col min="13" max="13" width="8.22222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/templates/Form kết hợp.xlsx
+++ b/templates/Form kết hợp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Điểm danh" sheetId="1" r:id="rId1"/>
@@ -87,16 +87,16 @@
     <t>Lý do</t>
   </si>
   <si>
-    <t>Ngày Duyệt/Từ chối lần 1</t>
-  </si>
-  <si>
-    <t>Trạng thái lần 1</t>
-  </si>
-  <si>
-    <t>Ngày Duyệt/Từ chối lần 2</t>
-  </si>
-  <si>
-    <t>Trạng thái lần 2</t>
+    <t>Ngày Duyệt/Từ chối Lần đầu</t>
+  </si>
+  <si>
+    <t>Trạng thái lần Lần đầu</t>
+  </si>
+  <si>
+    <t>Ngày Duyệt/Từ chối Lần cuối</t>
+  </si>
+  <si>
+    <t>Trạng thái Lần cuối</t>
   </si>
   <si>
     <t>Note</t>
@@ -1121,7 +1121,7 @@
   <sheetPr/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1326,13 +1326,13 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="1" max="1" width="6.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="22.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="10.5555555555556" customWidth="1"/>
@@ -1341,7 +1341,7 @@
     <col min="7" max="7" width="30.8888888888889" customWidth="1"/>
     <col min="8" max="8" width="18.4444444444444" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="15.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="16.2222222222222" customWidth="1"/>
     <col min="11" max="11" width="14.2222222222222" customWidth="1"/>
     <col min="12" max="12" width="7.22222222222222" customWidth="1"/>
     <col min="13" max="13" width="8.22222222222222" customWidth="1"/>

--- a/templates/Form kết hợp.xlsx
+++ b/templates/Form kết hợp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BCE4B4-EC79-4BBB-B86D-D224FF75B75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DCCAA0-C51E-4B6F-90B1-3272649989CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,9 +214,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +507,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="13" width="17.21875" customWidth="1"/>
-    <col min="14" max="14" width="21.77734375" customWidth="1"/>
+    <col min="4" max="13" width="31" customWidth="1"/>
+    <col min="14" max="14" width="35.77734375" customWidth="1"/>
     <col min="15" max="15" width="25.5546875" customWidth="1"/>
     <col min="16" max="16" width="26.21875" customWidth="1"/>
     <col min="17" max="17" width="2" customWidth="1"/>
@@ -576,8 +581,8 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="8"/>
@@ -668,7 +673,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="Q14" s="12"/>
+      <c r="Q14" s="11"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="8"/>
@@ -763,7 +768,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>

--- a/templates/Form kết hợp.xlsx
+++ b/templates/Form kết hợp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DCCAA0-C51E-4B6F-90B1-3272649989CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB983C5-5F18-45D0-82D6-DB752E601B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Điểm danh" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="13"/>
       <color theme="1"/>
@@ -124,6 +124,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -184,27 +190,12 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -217,11 +208,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,16 +506,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="13" width="31" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="6" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="32.21875" customWidth="1"/>
     <col min="14" max="14" width="35.77734375" customWidth="1"/>
     <col min="15" max="15" width="25.5546875" customWidth="1"/>
     <col min="16" max="16" width="26.21875" customWidth="1"/>
@@ -517,187 +526,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="8"/>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="Q14" s="11"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -708,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -717,65 +726,65 @@
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="27.109375" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="30.88671875" customWidth="1"/>
     <col min="8" max="8" width="18.44140625" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
     <col min="10" max="10" width="16.21875" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="26.77734375" customWidth="1"/>
     <col min="12" max="12" width="7.21875" customWidth="1"/>
     <col min="13" max="13" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/templates/Form kết hợp.xlsx
+++ b/templates/Form kết hợp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB983C5-5F18-45D0-82D6-DB752E601B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64F4506-0700-465E-854C-508C917C2683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Điểm danh" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Mã NV</t>
   </si>
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,9 +225,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -521,11 +518,10 @@
     <col min="13" max="13" width="32.21875" customWidth="1"/>
     <col min="14" max="14" width="35.77734375" customWidth="1"/>
     <col min="15" max="15" width="25.5546875" customWidth="1"/>
-    <col min="16" max="16" width="26.21875" customWidth="1"/>
-    <col min="17" max="17" width="2" customWidth="1"/>
+    <col min="16" max="16" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25" customHeight="1">
+    <row r="1" spans="1:16" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,16 +562,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -589,21 +582,20 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:16">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:16">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -611,7 +603,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -619,7 +611,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -627,7 +619,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:16">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -635,7 +627,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:16">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -643,7 +635,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:16">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -651,7 +643,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:16">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -659,7 +651,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:16">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -667,7 +659,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:16">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -675,16 +667,16 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:16">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -692,7 +684,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:16">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -717,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -776,15 +768,15 @@
     <row r="2" spans="1:11">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="13"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/templates/Form kết hợp.xlsx
+++ b/templates/Form kết hợp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64F4506-0700-465E-854C-508C917C2683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976EBC31-2586-4C4F-BFFF-C22B75E3FE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,14 +188,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -207,9 +204,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -568,137 +562,120 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:16">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="P14" s="6"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -731,52 +708,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/templates/Form kết hợp.xlsx
+++ b/templates/Form kết hợp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976EBC31-2586-4C4F-BFFF-C22B75E3FE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8FE729-CD78-45D1-AC6D-0C7DBC840593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,6 +219,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,7 +507,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -510,8 +519,8 @@
     <col min="5" max="5" width="34.6640625" customWidth="1"/>
     <col min="6" max="12" width="31" customWidth="1"/>
     <col min="13" max="13" width="32.21875" customWidth="1"/>
-    <col min="14" max="14" width="35.77734375" customWidth="1"/>
-    <col min="15" max="15" width="25.5546875" customWidth="1"/>
+    <col min="14" max="14" width="34.88671875" customWidth="1"/>
+    <col min="15" max="15" width="27.6640625" customWidth="1"/>
     <col min="16" max="16" width="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -563,7 +572,21 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="2"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="2"/>

--- a/templates/Form kết hợp.xlsx
+++ b/templates/Form kết hợp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8FE729-CD78-45D1-AC6D-0C7DBC840593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ACD9C2-C544-4418-B715-6ADC6517D3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Mã NV</t>
   </si>
@@ -93,19 +93,13 @@
     <t>Lý do</t>
   </si>
   <si>
-    <t>Ngày Duyệt/Từ chối Lần đầu</t>
-  </si>
-  <si>
-    <t>Trạng thái lần Lần đầu</t>
-  </si>
-  <si>
-    <t>Ngày Duyệt/Từ chối Lần cuối</t>
-  </si>
-  <si>
-    <t>Trạng thái Lần cuối</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Ngày Duyệt/Từ chối</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
   </si>
 </sst>
 </file>
@@ -707,7 +701,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -720,17 +714,14 @@
     <col min="3" max="3" width="22.21875" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="27.109375" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="30.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1"/>
-    <col min="11" max="11" width="26.77734375" customWidth="1"/>
-    <col min="12" max="12" width="7.21875" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" customWidth="1"/>
+    <col min="6" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -750,22 +741,16 @@
         <v>18</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -775,8 +760,6 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
